--- a/data/estimation results/MLE_1c_all_params_R_Rin_Rload.xlsx
+++ b/data/estimation results/MLE_1c_all_params_R_Rin_Rload.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03650550706329725</v>
+        <v>0.03343949468374975</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01153384783999575</v>
+        <v>0.01298733808257089</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.303666734503085</v>
+        <v>2.299518037870057</v>
       </c>
     </row>
   </sheetData>
